--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>627711.4377681646</v>
+        <v>710305.43142385</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12445480.89855084</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240761</v>
+        <v>6759716.467212731</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9745045.447128292</v>
+        <v>9235116.815001473</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.122845130882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923704996</v>
+        <v>20.5564897379229</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -801,10 +803,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>79.6357920613513</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>7.593433149095983</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C5" t="n">
-        <v>5.499949170270508</v>
+        <v>232.2791855053264</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>107.3880719186414</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X7" t="n">
-        <v>144.8586974472232</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>18.14576679396759</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>198.9430992003371</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>117.2278100992611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>1.781160222249223</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>284.4297735342292</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863182</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.09581973348946</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2062474346962</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>201.6086852141646</v>
+        <v>168.1158122680957</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>11.64558632322199</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1816,10 +1818,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>229.7965692041376</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>260.1478989722376</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>121.1342787812435</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>172.6288097805757</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>138.899218037197</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>284.4297735342301</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2251,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>82.70057996958644</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>78.78083674901981</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2327,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>102.9230408272509</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>36.41670903610036</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H26" t="n">
-        <v>279.9290008945219</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>111.9187566128687</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>184.0301397347021</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>36.3270796166963</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2807,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>260.0943654000823</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>155.7123319296402</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>108.8314371278621</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>279.9290008945214</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>20.2168228897854</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>52.23490948285976</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>40.31924309660637</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,10 +3243,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>212.0572690432716</v>
       </c>
       <c r="G35" t="n">
-        <v>229.7965692041376</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3317,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3424,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>6.647355203554653</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>150.2062474346973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3557,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>188.6059442291535</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>6.38006817584838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>37.59657533957331</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3746,16 +3748,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>235.9375844494541</v>
+        <v>188.605944229152</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>150.1158549703645</v>
+        <v>53.7634345605265</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3977,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>105.0023863360929</v>
       </c>
       <c r="V44" t="n">
-        <v>244.2230125550545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>215.9919723025123</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>206.3841310744966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1567.784838233996</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="C2" t="n">
-        <v>1567.784838233996</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D2" t="n">
-        <v>1567.784838233996</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056584</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="X2" t="n">
-        <v>2231.276441056584</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="Y2" t="n">
-        <v>1954.384678298117</v>
+        <v>553.8524235344764</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>337.3302090828938</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>337.3302090828938</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542602</v>
+        <v>188.3957994216425</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>188.3957994216425</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756897</v>
+        <v>41.86124144852747</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>41.86124144852747</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057882</v>
+        <v>41.86124144852747</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>826.7196740428381</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>591.5675658110954</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>337.3302090828938</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>337.3302090828938</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>337.3302090828938</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>476.1547555788524</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>307.2185726509455</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1019332386098</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386098</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>974.4153260046596</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>767.628291415171</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>542.1592551731853</v>
       </c>
       <c r="U4" t="n">
-        <v>1106.585350450639</v>
+        <v>275.7815986060074</v>
       </c>
       <c r="V4" t="n">
-        <v>1106.585350450639</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="W4" t="n">
-        <v>1106.585350450639</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X4" t="n">
-        <v>878.5957995526222</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y4" t="n">
-        <v>657.8032204090921</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.132293616578</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974333</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656512</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>2084.871465656512</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y5" t="n">
-        <v>1694.7321336807</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>826.7196740428383</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>591.5675658110956</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>337.330209082894</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>228.8574091650744</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>533.7933752329599</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>267.4157186657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1490.124203461141</v>
+        <v>39.42616776776453</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2057.32755894284</v>
+        <v>2361.386702945269</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4847,7 +4849,7 @@
         <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>2443.927399006962</v>
+        <v>2562.339328400155</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145199</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>482.9033490193026</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>777.6069060507743</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4920,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.04593830764878</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>53.04593830764878</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>53.04593830764878</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>53.04593830764878</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>53.04593830764878</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>53.04593830764878</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>53.04593830764878</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485136</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426267</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>281.0354892056661</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>53.04593830764878</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.04593830764878</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2175.400891308157</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>1806.438374367745</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>1448.172675760994</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>1062.38442316275</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F11" t="n">
-        <v>651.3985183731427</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5060,7 +5062,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
         <v>3325.60582160917</v>
@@ -5081,10 +5083,10 @@
         <v>3325.60582160917</v>
       </c>
       <c r="X11" t="n">
-        <v>2952.14006334809</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y11" t="n">
-        <v>2562.000731372279</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,13 +5135,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.7237329438971</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>775.7875500159902</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>625.6709106036544</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
         <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1864.571497852645</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1864.571497852645</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T13" t="n">
-        <v>1864.571497852645</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U13" t="n">
-        <v>1864.571497852645</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="V13" t="n">
-        <v>1864.571497852645</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="W13" t="n">
-        <v>1575.154327815684</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="X13" t="n">
-        <v>1347.164776917667</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y13" t="n">
-        <v>1126.372197774137</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2209.232076102165</v>
+        <v>2175.400891308156</v>
       </c>
       <c r="C14" t="n">
-        <v>1840.269559161753</v>
+        <v>1806.438374367744</v>
       </c>
       <c r="D14" t="n">
-        <v>1482.003860555003</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E14" t="n">
-        <v>1096.215607956759</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F14" t="n">
-        <v>685.2297031671512</v>
+        <v>651.3985183731422</v>
       </c>
       <c r="G14" t="n">
-        <v>270.1572530121477</v>
+        <v>236.3260682181387</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W14" t="n">
-        <v>2972.837166339057</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X14" t="n">
-        <v>2599.371408077977</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2209.232076102165</v>
+        <v>2562.000731372278</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>953.2602595377767</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>784.3240766098698</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
         <v>772.5608581015648</v>
@@ -5425,16 +5427,16 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
         <v>315.6219318279954</v>
@@ -5464,22 +5466,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V16" t="n">
-        <v>1134.908724368016</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W16" t="n">
-        <v>1134.908724368016</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X16" t="n">
-        <v>1134.908724368016</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>1134.908724368016</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1822.632236038043</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C17" t="n">
-        <v>1453.669719097632</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>1095.404020490881</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>709.615767892637</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>298.6298631030294</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5516,13 +5518,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5549,16 +5551,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W17" t="n">
-        <v>2972.837166339057</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X17" t="n">
-        <v>2599.371408077977</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="Y17" t="n">
-        <v>2209.232076102165</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>749.2621142610717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C19" t="n">
-        <v>580.3259313331648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D19" t="n">
-        <v>580.3259313331648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E19" t="n">
-        <v>432.4128377507717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>432.4128377507717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1663.091555714126</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1663.091555714126</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>1373.98868883977</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046018</v>
+        <v>1119.304200633883</v>
       </c>
       <c r="W19" t="n">
-        <v>970.0546934046018</v>
+        <v>829.8870305969223</v>
       </c>
       <c r="X19" t="n">
-        <v>970.0546934046018</v>
+        <v>601.8974796989049</v>
       </c>
       <c r="Y19" t="n">
-        <v>749.2621142610717</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2175.400891308157</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C20" t="n">
-        <v>1806.438374367746</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>1448.172675760995</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1062.384423162751</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>651.3985183731436</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5774,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W20" t="n">
-        <v>3325.605821609171</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X20" t="n">
-        <v>2952.140063348091</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y20" t="n">
-        <v>2562.000731372279</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1091.613680441807</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C22" t="n">
-        <v>922.6774975139006</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D22" t="n">
-        <v>772.5608581015648</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5932,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.044275313594</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X22" t="n">
-        <v>1494.054724415577</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y22" t="n">
-        <v>1273.262145272047</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2345.167438673965</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F23" t="n">
         <v>821.1650657389509</v>
@@ -5990,7 +5992,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6026,13 +6028,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2424.744041450753</v>
+        <v>2320.781373948479</v>
       </c>
       <c r="X23" t="n">
-        <v>2424.744041450753</v>
+        <v>2320.781373948479</v>
       </c>
       <c r="Y23" t="n">
-        <v>2424.744041450753</v>
+        <v>2320.781373948479</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>234.2149530574644</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C25" t="n">
-        <v>234.2149530574644</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D25" t="n">
-        <v>234.2149530574644</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574644</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>1890.509993506573</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S25" t="n">
-        <v>1698.8241093334</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T25" t="n">
-        <v>1477.057493902926</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.954627028569</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="V25" t="n">
-        <v>933.2701388226822</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="W25" t="n">
-        <v>643.8529687857215</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="X25" t="n">
-        <v>415.8634178877041</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="Y25" t="n">
-        <v>415.8634178877041</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.569348694472</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C26" t="n">
-        <v>1122.606831754061</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D26" t="n">
-        <v>764.3411331473101</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E26" t="n">
-        <v>764.3411331473101</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F26" t="n">
-        <v>764.3411331473101</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G26" t="n">
-        <v>349.2686829923065</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
@@ -6248,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V26" t="n">
-        <v>2994.5429342656</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W26" t="n">
-        <v>2641.774278995485</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.308520734406</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.169188758594</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6302,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>590.8070661251691</v>
+        <v>1930.766159791013</v>
       </c>
       <c r="C28" t="n">
-        <v>590.8070661251691</v>
+        <v>1761.829976863107</v>
       </c>
       <c r="D28" t="n">
-        <v>590.8070661251691</v>
+        <v>1611.713337450771</v>
       </c>
       <c r="E28" t="n">
-        <v>590.8070661251691</v>
+        <v>1611.713337450771</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N28" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O28" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P28" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U28" t="n">
-        <v>1134.908724368016</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V28" t="n">
-        <v>880.2242361621296</v>
+        <v>2850.613924699761</v>
       </c>
       <c r="W28" t="n">
-        <v>590.8070661251691</v>
+        <v>2561.1967546628</v>
       </c>
       <c r="X28" t="n">
-        <v>590.8070661251691</v>
+        <v>2333.207203764783</v>
       </c>
       <c r="Y28" t="n">
-        <v>590.8070661251691</v>
+        <v>2112.414624621253</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2012.898941548398</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1899.346003793994</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1541.080305187243</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>1155.292052588999</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>744.3061477993913</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>329.2336976443877</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912088</v>
@@ -6485,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>2755.806928794324</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W29" t="n">
-        <v>2403.03827352421</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X29" t="n">
-        <v>2403.03827352421</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y29" t="n">
-        <v>2012.898941548398</v>
+        <v>2268.308520734405</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>370.0144869816389</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C31" t="n">
-        <v>370.0144869816389</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D31" t="n">
-        <v>370.0144869816389</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E31" t="n">
-        <v>370.0144869816389</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F31" t="n">
-        <v>370.0144869816389</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6643,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V31" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W31" t="n">
-        <v>590.8070661251691</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X31" t="n">
-        <v>590.8070661251691</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="Y31" t="n">
-        <v>370.0144869816389</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1617.939223126803</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C32" t="n">
-        <v>1617.939223126803</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>349.2686829923061</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
@@ -6701,7 +6703,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6728,22 +6730,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3099.207040771387</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>2768.144153427816</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W32" t="n">
-        <v>2768.144153427816</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X32" t="n">
-        <v>2394.678395166736</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y32" t="n">
-        <v>2004.539063190924</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>362.8175152271517</v>
+        <v>593.9942835760974</v>
       </c>
       <c r="C34" t="n">
-        <v>362.8175152271517</v>
+        <v>425.0581006481905</v>
       </c>
       <c r="D34" t="n">
-        <v>362.8175152271517</v>
+        <v>274.9414612358547</v>
       </c>
       <c r="E34" t="n">
-        <v>362.8175152271517</v>
+        <v>274.9414612358547</v>
       </c>
       <c r="F34" t="n">
-        <v>362.8175152271517</v>
+        <v>274.9414612358547</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959802</v>
+        <v>107.2386246105737</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
         <v>66.5121164321834</v>
@@ -6880,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>996.4353275498672</v>
       </c>
       <c r="Y34" t="n">
-        <v>362.8175152271517</v>
+        <v>775.6427484063371</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038043</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097632</v>
+        <v>1439.837779452052</v>
       </c>
       <c r="D35" t="n">
-        <v>1095.404020490881</v>
+        <v>1081.572080845302</v>
       </c>
       <c r="E35" t="n">
-        <v>709.615767892637</v>
+        <v>695.7838282470573</v>
       </c>
       <c r="F35" t="n">
-        <v>298.6298631030294</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6959,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339057</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077977</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102165</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>316.769480601591</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>1645.778206672847</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V37" t="n">
-        <v>1645.778206672847</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W37" t="n">
-        <v>1645.778206672847</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X37" t="n">
-        <v>1494.054724415577</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y37" t="n">
-        <v>1273.262145272047</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7165,13 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7181,7 +7183,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7190,28 +7192,28 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>3135.094766832249</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V38" t="n">
-        <v>3135.094766832249</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W38" t="n">
-        <v>2782.326111562134</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X38" t="n">
         <v>2782.326111562134</v>
@@ -7242,13 +7244,13 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228006</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1640.204086189707</v>
+        <v>1821.852551019945</v>
       </c>
       <c r="C40" t="n">
-        <v>1471.2679032618</v>
+        <v>1652.916368092038</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.823389952862</v>
+        <v>1502.799728679702</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399798</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348674</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102584</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456657</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T40" t="n">
-        <v>3103.839206178698</v>
+        <v>3103.839206178696</v>
       </c>
       <c r="U40" t="n">
-        <v>2814.736339304341</v>
+        <v>2814.73633930434</v>
       </c>
       <c r="V40" t="n">
-        <v>2560.051851098454</v>
+        <v>2560.051851098453</v>
       </c>
       <c r="W40" t="n">
-        <v>2270.634681061494</v>
+        <v>2270.634681061492</v>
       </c>
       <c r="X40" t="n">
-        <v>2042.645130163476</v>
+        <v>2042.645130163475</v>
       </c>
       <c r="Y40" t="n">
-        <v>1821.852551019946</v>
+        <v>1821.852551019945</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1032.061124352532</v>
+        <v>2196.097994299122</v>
       </c>
       <c r="C41" t="n">
-        <v>663.0986074121199</v>
+        <v>1827.13547735871</v>
       </c>
       <c r="D41" t="n">
-        <v>304.8329088053694</v>
+        <v>1468.86977875196</v>
       </c>
       <c r="E41" t="n">
-        <v>304.8329088053694</v>
+        <v>1083.081526153716</v>
       </c>
       <c r="F41" t="n">
-        <v>304.8329088053694</v>
+        <v>672.0956213641082</v>
       </c>
       <c r="G41" t="n">
-        <v>304.8329088053694</v>
+        <v>257.0231712091046</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.09759726723</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.034709923659</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2182.266054653545</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>1808.800296392465</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y41" t="n">
-        <v>1418.660964416653</v>
+        <v>2582.697834363244</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7466,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>994.2880032601528</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C43" t="n">
-        <v>825.3518203322459</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E43" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7609,10 +7611,10 @@
         <v>1548.361223971664</v>
       </c>
       <c r="X43" t="n">
-        <v>1396.729047233923</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y43" t="n">
-        <v>1175.936468090393</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1575.942324366272</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C44" t="n">
-        <v>1575.942324366272</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.942324366272</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V44" t="n">
-        <v>3078.915909937399</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W44" t="n">
-        <v>2726.147254667285</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X44" t="n">
-        <v>2352.681496406205</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y44" t="n">
-        <v>1962.542164430393</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>382.3382468580007</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C46" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D46" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>1517.434954518842</v>
       </c>
       <c r="U46" t="n">
-        <v>1134.908724368016</v>
+        <v>1228.332087644485</v>
       </c>
       <c r="V46" t="n">
-        <v>880.2242361621296</v>
+        <v>973.6475994385985</v>
       </c>
       <c r="W46" t="n">
-        <v>590.8070661251691</v>
+        <v>684.2304294016378</v>
       </c>
       <c r="X46" t="n">
-        <v>382.3382468580007</v>
+        <v>456.2408785036204</v>
       </c>
       <c r="Y46" t="n">
-        <v>382.3382468580007</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30.36925650589473</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515143</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.95314511566525</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>60.35797727397625</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>116.9617832120865</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
-        <v>112.1150935251716</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.3653142635827</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22689,10 +22691,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22702,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>47.86881082231264</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>278.6337209721046</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>359.7729426007371</v>
+        <v>132.9937062656811</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -22860,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22926,7 +22928,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>98.3849132848361</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22939,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X7" t="n">
-        <v>80.85095794181399</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>200.4388865581272</v>
       </c>
     </row>
     <row r="8">
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>183.7907424631435</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23036,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>269.0101285567924</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>103.0154349816514</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>80.85095794181399</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>126.4919521192243</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>168.0688818921509</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>26.83633293655787</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -23476,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>75.50340795434099</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>92.99907917315582</v>
+        <v>126.4919521192247</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>136.9698866949904</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>75.50340795433985</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>181.1251564493159</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,16 +23791,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>126.090039683816</v>
       </c>
     </row>
     <row r="18">
@@ -23890,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>44.89152947778474</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>17.1402155508662</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>243.8346236262836</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>126.4919521192234</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24020,16 +24022,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>83.32522828944178</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>303.9530049144607</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24215,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24266,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>246.3179278901621</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>52.51544363394697</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>69.34270184147189</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24449,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H26" t="n">
-        <v>14.67876349279857</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24500,7 +24502,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>33.50229141006257</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>68.10750358912588</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>328.9458121543112</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24695,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>34.51339898723819</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>10.31347632938807</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>109.7532162242327</v>
       </c>
     </row>
     <row r="32">
@@ -24917,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>14.67876349279902</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,16 +24970,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>230.7783490691166</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>104.4357718177144</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25163,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>194.8187766984398</v>
       </c>
       <c r="G35" t="n">
-        <v>181.1251564493159</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25205,13 +25207,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25312,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>159.3784530554736</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>75.50340795433985</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25445,16 +25447,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>62.38922772974848</v>
+        <v>82.8793596908057</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>142.235404842364</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>108.8373873069959</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25634,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>58.67017993786635</v>
+        <v>106.0018201581684</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25679,19 +25681,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>75.59380041867266</v>
+        <v>171.9462208285107</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25916,13 +25918,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>145.9927856228091</v>
       </c>
       <c r="V44" t="n">
-        <v>83.52924591508037</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>3.556976973656901</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>19.32552431454053</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>784195.2636776819</v>
+        <v>524231.6472993041</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>784195.263677682</v>
+        <v>524231.6472993043</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>784195.2636776819</v>
+        <v>784195.263677682</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862251.8508674991</v>
+        <v>862251.850867499</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862251.8508674991</v>
+        <v>862251.850867499</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862251.8508674991</v>
+        <v>862251.850867499</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862251.850867499</v>
+        <v>862251.8508674991</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>862251.8508674989</v>
+        <v>862251.850867499</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862251.8508674991</v>
+        <v>862251.8508674989</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862251.8508674991</v>
+        <v>862251.850867499</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862251.8508674991</v>
+        <v>862251.850867499</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862251.8508674991</v>
+        <v>862251.8508674989</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305971.6304943086</v>
+        <v>203966.5811971125</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943087</v>
+        <v>203966.5811971125</v>
       </c>
       <c r="D2" t="n">
-        <v>305971.6304943086</v>
+        <v>305971.6304943085</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="F2" t="n">
         <v>340997.0989709204</v>
@@ -26329,22 +26331,22 @@
         <v>340997.0989709205</v>
       </c>
       <c r="H2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="I2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="J2" t="n">
+        <v>340997.0989709204</v>
+      </c>
+      <c r="K2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="M2" t="n">
         <v>340997.0989709206</v>
-      </c>
-      <c r="L2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="M2" t="n">
-        <v>340997.0989709205</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709205</v>
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171907</v>
+        <v>182072.9798171901</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>95382.64613756973</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341491</v>
+        <v>47552.2657934148</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19788.00270570974</v>
+        <v>14543.87419713278</v>
       </c>
       <c r="C4" t="n">
-        <v>19788.00270570974</v>
+        <v>14543.87419713278</v>
       </c>
       <c r="D4" t="n">
         <v>19788.00270570974</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.34706710378</v>
+        <v>10380.34706710381</v>
       </c>
       <c r="F4" t="n">
         <v>10380.34706710378</v>
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
+        <v>63047.8032042662</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.77243984472</v>
       </c>
-      <c r="D5" t="n">
-        <v>92937.7724398447</v>
-      </c>
       <c r="E5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="F5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="F5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-921505.9282271652</v>
+        <v>-553713.0767954796</v>
       </c>
       <c r="C6" t="n">
-        <v>193245.8553487543</v>
+        <v>126374.9037957135</v>
       </c>
       <c r="D6" t="n">
-        <v>193245.8553487544</v>
+        <v>-197882.5084571894</v>
       </c>
       <c r="E6" t="n">
-        <v>74237.43152523274</v>
+        <v>74237.43152523343</v>
       </c>
       <c r="F6" t="n">
-        <v>256310.4113424234</v>
+        <v>256310.411342423</v>
       </c>
       <c r="G6" t="n">
-        <v>256310.4113424234</v>
+        <v>256310.4113424235</v>
       </c>
       <c r="H6" t="n">
-        <v>256310.4113424234</v>
+        <v>256310.4113424233</v>
       </c>
       <c r="I6" t="n">
         <v>256310.4113424235</v>
       </c>
       <c r="J6" t="n">
-        <v>88705.23353244085</v>
+        <v>187311.2569233093</v>
       </c>
       <c r="K6" t="n">
         <v>256310.4113424235</v>
       </c>
       <c r="L6" t="n">
-        <v>256310.4113424235</v>
+        <v>160927.7652048537</v>
       </c>
       <c r="M6" t="n">
-        <v>208758.1455490085</v>
+        <v>208758.1455490087</v>
       </c>
       <c r="N6" t="n">
-        <v>256310.4113424235</v>
+        <v>256310.4113424234</v>
       </c>
       <c r="O6" t="n">
         <v>256310.4113424234</v>
       </c>
       <c r="P6" t="n">
-        <v>256310.4113424235</v>
+        <v>256310.4113424234</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
+        <v>614.0550137694784</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
+        <v>263.7138800015062</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="D4" t="n">
-        <v>640.5848321000387</v>
-      </c>
       <c r="E4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757585</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32494,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33023,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33515,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.215670698749</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33907,7 +33909,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
         <v>629.9949819746414</v>
@@ -34138,7 +34140,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490575</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
         <v>781.7148990095023</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>280.048785629427</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750467</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065826</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>246.9454735174611</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -37163,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37786,7 +37788,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>710305.43142385</v>
+        <v>672465.8332524792</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445480.89855084</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6759716.467212731</v>
+        <v>5739665.974240763</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9235116.815001473</v>
+        <v>9745045.44712829</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>278.5238702603267</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>232.2791855053265</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.5564897379229</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>79.6357920613513</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>122.2978533527822</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>232.2791855053264</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>253.6466956865328</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>107.3880719186414</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015062</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>227.0498507676369</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.14576679396759</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.9430992003371</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>167.2807883299695</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>144.8586974472232</v>
+        <v>8.826231050087156</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>216.1947006939461</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.6622187863182</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>70.82764119510665</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>150.2062474346962</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>133.6650819731286</v>
       </c>
       <c r="H14" t="n">
-        <v>168.1158122680957</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>224.7562560951392</v>
       </c>
       <c r="X16" t="n">
-        <v>150.2062474346973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>7.160548332619828</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>260.1478989722376</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>15.11174121957099</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2052,13 +2052,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>172.6288097805757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>138.899218037197</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>205.6099408342595</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>82.70057996958644</v>
+        <v>27.21818400116982</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>106.111715575619</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>102.9230408272509</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>150.2062474346973</v>
+        <v>114.4746605491558</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>137.9038626268947</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0301397347021</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>28.93420885558077</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>260.0943654000823</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.8314371278621</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>279.9290008945214</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699578</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>146.1579437348916</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>40.31924309660637</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>212.0572690432716</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>188.2196394312107</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.647355203554653</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>323.4624061283623</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>168.1158122680963</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>37.59657533957331</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3720,13 +3720,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>150.92433948255</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>188.605944229152</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>65.72456219185446</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>201.0854077331753</v>
       </c>
       <c r="X43" t="n">
-        <v>53.7634345605265</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>105.0023863360929</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>246.258675210547</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>6.380068175847845</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>215.9919723025123</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287.4747669672984</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="C2" t="n">
-        <v>21.09711040012049</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="D2" t="n">
-        <v>21.09711040012049</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="E2" t="n">
-        <v>21.09711040012049</v>
+        <v>1159.27468432052</v>
       </c>
       <c r="F2" t="n">
-        <v>21.09711040012049</v>
+        <v>748.288779530913</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>332.5840292552018</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>820.2300801016544</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X2" t="n">
-        <v>553.8524235344764</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y2" t="n">
-        <v>553.8524235344764</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>337.3302090828938</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>337.3302090828938</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>188.3957994216425</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3957994216425</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>41.86124144852747</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>41.86124144852747</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>41.86124144852747</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>826.7196740428381</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>591.5675658110954</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>337.3302090828938</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>337.3302090828938</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>337.3302090828938</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012049</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>974.4153260046596</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>767.628291415171</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>542.1592551731853</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U4" t="n">
-        <v>275.7815986060074</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V4" t="n">
-        <v>21.09711040012049</v>
+        <v>1121.211190889087</v>
       </c>
       <c r="W4" t="n">
-        <v>21.09711040012049</v>
+        <v>831.794020852126</v>
       </c>
       <c r="X4" t="n">
-        <v>21.09711040012049</v>
+        <v>603.8044699541086</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.09711040012049</v>
+        <v>383.0118908105785</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044907</v>
+        <v>1641.622808667129</v>
       </c>
       <c r="C5" t="n">
-        <v>21.0971104001205</v>
+        <v>1272.660291726717</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0971104001205</v>
+        <v>914.3945931199664</v>
       </c>
       <c r="E5" t="n">
-        <v>21.0971104001205</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F5" t="n">
-        <v>21.0971104001205</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>1641.622808667129</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388467</v>
+        <v>1641.622808667129</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>1641.622808667129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>826.7196740428383</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>591.5675658110956</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>337.330209082894</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>228.8574091650744</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.0971104001205</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.0971104001205</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C7" t="n">
-        <v>21.0971104001205</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0971104001205</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>788.4778634388467</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>533.7933752329599</v>
+        <v>1117.984498974661</v>
       </c>
       <c r="W7" t="n">
-        <v>267.4157186657819</v>
+        <v>828.5673289377006</v>
       </c>
       <c r="X7" t="n">
-        <v>39.42616776776453</v>
+        <v>600.5777780396833</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.0971104001205</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2361.386702945269</v>
+        <v>1641.622808667129</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.424186004858</v>
+        <v>1272.660291726717</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>914.3945931199667</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>528.6063405217224</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2268.669627664029</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2015.088566928209</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2015.088566928209</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2015.088566928209</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1641.622808667129</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.339328400155</v>
+        <v>1641.622808667129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4880,31 +4880,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>482.9033490193026</v>
+        <v>614.5430248380239</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507743</v>
+        <v>909.2465818694955</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009994</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.15405360694</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783102</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>1244.445543553118</v>
       </c>
       <c r="X10" t="n">
-        <v>1490.124203461141</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528559</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.60582160917</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.60582160917</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="12">
@@ -5096,70 +5096,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672846</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.778206672846</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1645.778206672846</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1645.778206672846</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1645.778206672846</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2175.400891308156</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C14" t="n">
-        <v>1806.438374367744</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D14" t="n">
-        <v>1448.172675760994</v>
+        <v>1337.882007288091</v>
       </c>
       <c r="E14" t="n">
-        <v>1062.38442316275</v>
+        <v>952.0937546898465</v>
       </c>
       <c r="F14" t="n">
-        <v>651.3985183731422</v>
+        <v>541.107849900239</v>
       </c>
       <c r="G14" t="n">
-        <v>236.3260682181387</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X14" t="n">
-        <v>2952.14006334809</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y14" t="n">
-        <v>2562.000731372278</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
         <v>315.6219318279954</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V16" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W16" t="n">
-        <v>1645.778206672847</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5533,10 +5533,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.5429342656</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W17" t="n">
-        <v>2994.5429342656</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X17" t="n">
-        <v>2994.5429342656</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>381.1049005553748</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="C19" t="n">
-        <v>381.1049005553748</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="D19" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5700,25 +5700,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1663.091555714126</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1663.091555714126</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1373.98868883977</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V19" t="n">
-        <v>1119.304200633883</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W19" t="n">
-        <v>829.8870305969223</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X19" t="n">
-        <v>601.8974796989049</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y19" t="n">
-        <v>381.1049005553748</v>
+        <v>431.1278029579779</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1278.358723975039</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C20" t="n">
-        <v>1278.358723975039</v>
+        <v>1439.837779452053</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5776,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267229</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923658</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W20" t="n">
         <v>2182.266054653544</v>
       </c>
       <c r="X20" t="n">
-        <v>1808.800296392464</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y20" t="n">
-        <v>1418.660964416652</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1007.446783179745</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="C22" t="n">
-        <v>838.5106002518381</v>
+        <v>240.2224183670224</v>
       </c>
       <c r="D22" t="n">
-        <v>688.3939608395024</v>
+        <v>240.2224183670224</v>
       </c>
       <c r="E22" t="n">
-        <v>540.4808672571093</v>
+        <v>240.2224183670224</v>
       </c>
       <c r="F22" t="n">
-        <v>393.5909197591989</v>
+        <v>240.2224183670224</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H22" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V22" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W22" t="n">
-        <v>1637.877378051532</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X22" t="n">
-        <v>1409.887827153515</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y22" t="n">
-        <v>1189.095248009985</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1934.181533884357</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C23" t="n">
-        <v>1565.219016943946</v>
+        <v>942.9472709150252</v>
       </c>
       <c r="D23" t="n">
-        <v>1206.953318337195</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="E23" t="n">
-        <v>821.1650657389509</v>
+        <v>584.6815723082748</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>173.6956675186672</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -6028,13 +6028,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2320.781373948479</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X23" t="n">
-        <v>2320.781373948479</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y23" t="n">
-        <v>2320.781373948479</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="24">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2489.924953962484</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C25" t="n">
-        <v>2320.988771034577</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D25" t="n">
-        <v>2170.872131622242</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.959038039849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F25" t="n">
-        <v>1876.069090541939</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>1562.149067134515</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>3044.089480193524</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>2892.365997936254</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U25" t="n">
-        <v>2892.365997936254</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V25" t="n">
-        <v>2892.365997936254</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W25" t="n">
-        <v>2892.365997936254</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X25" t="n">
-        <v>2892.365997936254</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y25" t="n">
-        <v>2671.573418792724</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038042</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097631</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.40402049088</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>709.6157678926361</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>298.6298631030285</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
         <v>66.5121164321834</v>
@@ -6226,7 +6226,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077976</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102164</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="27">
@@ -6305,13 +6305,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1930.766159791013</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C28" t="n">
-        <v>1761.829976863107</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>1611.713337450771</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>1611.713337450771</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.60582160917</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U28" t="n">
-        <v>3036.502954734814</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V28" t="n">
-        <v>2850.613924699761</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W28" t="n">
-        <v>2561.1967546628</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X28" t="n">
-        <v>2333.207203764783</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>2112.414624621253</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2268.308520734405</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C29" t="n">
-        <v>1899.346003793994</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D29" t="n">
-        <v>1541.080305187243</v>
+        <v>552.807938939214</v>
       </c>
       <c r="E29" t="n">
-        <v>1155.292052588999</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F29" t="n">
-        <v>744.3061477993913</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>329.2336976443877</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912088</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.308520734405</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>2268.308520734405</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088493</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V31" t="n">
-        <v>1672.610059882606</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W31" t="n">
-        <v>1383.192889845645</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X31" t="n">
-        <v>1383.192889845645</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.569348694472</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.60683175406</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D32" t="n">
-        <v>764.3411331473096</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>764.3411331473096</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>764.3411331473096</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>349.2686829923061</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>2994.542934265599</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W32" t="n">
-        <v>2641.774278995485</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.308520734405</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.169188758593</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>593.9942835760974</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="C34" t="n">
-        <v>425.0581006481905</v>
+        <v>362.0594966154772</v>
       </c>
       <c r="D34" t="n">
-        <v>274.9414612358547</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E34" t="n">
-        <v>274.9414612358547</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>274.9414612358547</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>107.2386246105737</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V34" t="n">
-        <v>1513.842048484845</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W34" t="n">
-        <v>1224.424878447885</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X34" t="n">
-        <v>996.4353275498672</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y34" t="n">
-        <v>775.6427484063371</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1808.800296392464</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C35" t="n">
-        <v>1439.837779452052</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D35" t="n">
-        <v>1081.572080845302</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E35" t="n">
-        <v>695.7838282470573</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810553</v>
@@ -6967,22 +6967,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W35" t="n">
-        <v>2182.266054653544</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X35" t="n">
-        <v>1808.800296392464</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y35" t="n">
-        <v>1808.800296392464</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>827.064395508012</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>463.6594280995014</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C37" t="n">
-        <v>463.6594280995014</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D37" t="n">
-        <v>463.6594280995014</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E37" t="n">
-        <v>463.6594280995014</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F37" t="n">
-        <v>316.769480601591</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
         <v>66.5121164321834</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U37" t="n">
-        <v>1638.191681214136</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V37" t="n">
-        <v>1383.507193008249</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W37" t="n">
-        <v>1094.090022971289</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X37" t="n">
-        <v>866.1004720732712</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y37" t="n">
-        <v>645.3078929297411</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.586939522201</v>
+        <v>1959.241091287691</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>1590.278574347279</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.012875740528</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>846.2246231422841</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>435.2387183526766</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.5121164321834</v>
@@ -7177,7 +7177,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7207,19 +7207,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>3155.791869823214</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V38" t="n">
-        <v>3155.791869823214</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W38" t="n">
-        <v>3155.791869823214</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X38" t="n">
-        <v>2782.326111562134</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y38" t="n">
-        <v>2392.186779586323</v>
+        <v>2345.840931351812</v>
       </c>
     </row>
     <row r="39">
@@ -7253,13 +7253,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1821.852551019945</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C40" t="n">
-        <v>1652.916368092038</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D40" t="n">
-        <v>1502.799728679702</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952861</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952861</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952861</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>3103.839206178696</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>2814.73633930434</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>2560.051851098453</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W40" t="n">
-        <v>2270.634681061492</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X40" t="n">
-        <v>2042.645130163475</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y40" t="n">
-        <v>1821.852551019945</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2196.097994299122</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>1827.13547735871</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1468.86977875196</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>1083.081526153716</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>672.0956213641082</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>257.0231712091046</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X41" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y41" t="n">
-        <v>2582.697834363244</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>794.6070935315613</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F43" t="n">
         <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U43" t="n">
-        <v>1548.361223971664</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V43" t="n">
-        <v>1548.361223971664</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W43" t="n">
-        <v>1548.361223971664</v>
+        <v>1243.389223573109</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>1015.399672675091</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>794.6070935315613</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1179.52858457759</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C44" t="n">
-        <v>810.5660676371781</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D44" t="n">
-        <v>452.3003690304276</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>66.5121164321834</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3013.565057492288</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V44" t="n">
-        <v>2682.502170148718</v>
+        <v>2823.329208306698</v>
       </c>
       <c r="W44" t="n">
-        <v>2329.733514878603</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X44" t="n">
-        <v>1956.267756617523</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y44" t="n">
-        <v>1566.128424641711</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.4482993600903</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C46" t="n">
-        <v>66.5121164321834</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="D46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1517.434954518842</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>1228.332087644485</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>973.6475994385985</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W46" t="n">
-        <v>684.2304294016378</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X46" t="n">
-        <v>456.2408785036204</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.4482993600903</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>60.35797727397625</v>
+        <v>193.3273467878365</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>22.49468230207867</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>116.9617832120865</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.3653142635827</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.86881082231264</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>129.8397899710458</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>132.9937062656811</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>412.83417464571</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>95.5942730308802</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22928,7 +22928,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>98.3849132848361</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22953,19 +22953,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117128</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>25.08779255619112</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.4388865581272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.7907424631435</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23035,10 +23035,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>39.37739665026427</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -23241,10 +23241,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>80.85095794181399</v>
+        <v>216.88342433895</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>149.0781910770615</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0688818921509</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>75.60632145146252</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>75.50340795434099</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>277.2566436803248</v>
       </c>
       <c r="H14" t="n">
-        <v>126.4919521192247</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -23715,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>61.76674224145185</v>
       </c>
       <c r="X16" t="n">
-        <v>75.50340795433985</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>358.1123434383877</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>126.090039683816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>133.5037317986414</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>17.1402155508662</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>243.8346236262836</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>149.0731007864234</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>83.32522828944178</v>
+        <v>138.8076242578584</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>304.8100100778345</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>246.3179278901621</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>69.34270184147189</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -24502,16 +24502,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>231.8272380515743</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24651,16 +24651,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>68.10750358912588</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>352.996161216681</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>34.51339898723819</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>109.7532162242327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>14.67876349279902</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -24976,10 +24976,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>331.8898480104172</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2.457529283320724</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>104.4357718177144</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>194.8187766984398</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>222.7020862222428</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>159.3784530554736</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>87.45931952509119</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>82.8793596908057</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>108.8373873069959</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>74.78531590648717</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>106.0018201581684</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>320.5133764641992</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -25848,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>85.43759060341569</v>
       </c>
       <c r="X43" t="n">
-        <v>171.9462208285107</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>145.9927856228091</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>81.49358325958787</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,10 +26073,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>3.556976973656901</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>524231.6472993041</v>
+        <v>784195.2636776819</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>524231.6472993043</v>
+        <v>784195.263677682</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>784195.263677682</v>
+        <v>784195.2636776818</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862251.850867499</v>
+        <v>862251.8508674989</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862251.850867499</v>
+        <v>862251.8508674991</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862251.850867499</v>
+        <v>862251.8508674991</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862251.8508674991</v>
+        <v>862251.8508674989</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862251.8508674989</v>
+        <v>862251.850867499</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>862251.850867499</v>
+        <v>862251.8508674989</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862251.850867499</v>
+        <v>862251.8508674991</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862251.850867499</v>
+        <v>862251.8508674991</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862251.8508674989</v>
+        <v>862251.850867499</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>203966.5811971125</v>
+        <v>305971.6304943085</v>
       </c>
       <c r="C2" t="n">
-        <v>203966.5811971125</v>
+        <v>305971.6304943087</v>
       </c>
       <c r="D2" t="n">
         <v>305971.6304943085</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="F2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="G2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="H2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="H2" t="n">
-        <v>340997.0989709204</v>
       </c>
       <c r="I2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="J2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="K2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="L2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059435</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171901</v>
+        <v>182072.9798171911</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756973</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.2657934148</v>
+        <v>47552.26579341482</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14543.87419713278</v>
+        <v>19788.00270570974</v>
       </c>
       <c r="C4" t="n">
-        <v>14543.87419713278</v>
+        <v>19788.00270570974</v>
       </c>
       <c r="D4" t="n">
-        <v>19788.00270570974</v>
+        <v>19788.00270570976</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.34706710381</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="F4" t="n">
         <v>10380.34706710378</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
@@ -26496,10 +26496,10 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
@@ -26508,10 +26508,10 @@
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-553713.0767954796</v>
+        <v>-926733.3909490571</v>
       </c>
       <c r="C6" t="n">
-        <v>126374.9037957135</v>
+        <v>188018.3926268626</v>
       </c>
       <c r="D6" t="n">
-        <v>-197882.5084571894</v>
+        <v>188018.3926268627</v>
       </c>
       <c r="E6" t="n">
-        <v>74237.43152523343</v>
+        <v>70761.24222717137</v>
       </c>
       <c r="F6" t="n">
-        <v>256310.411342423</v>
+        <v>252834.2220443624</v>
       </c>
       <c r="G6" t="n">
-        <v>256310.4113424235</v>
+        <v>252834.2220443626</v>
       </c>
       <c r="H6" t="n">
-        <v>256310.4113424233</v>
+        <v>252834.2220443624</v>
       </c>
       <c r="I6" t="n">
-        <v>256310.4113424235</v>
+        <v>252834.2220443624</v>
       </c>
       <c r="J6" t="n">
-        <v>187311.2569233093</v>
+        <v>85229.04423437989</v>
       </c>
       <c r="K6" t="n">
-        <v>256310.4113424235</v>
+        <v>252834.2220443625</v>
       </c>
       <c r="L6" t="n">
-        <v>160927.7652048537</v>
+        <v>252834.2220443624</v>
       </c>
       <c r="M6" t="n">
-        <v>208758.1455490087</v>
+        <v>205281.9562509474</v>
       </c>
       <c r="N6" t="n">
-        <v>256310.4113424234</v>
+        <v>252834.2220443624</v>
       </c>
       <c r="O6" t="n">
-        <v>256310.4113424234</v>
+        <v>252834.2220443625</v>
       </c>
       <c r="P6" t="n">
-        <v>256310.4113424234</v>
+        <v>252834.2220443625</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
@@ -26816,10 +26816,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
@@ -26828,10 +26828,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.009878348061</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757585</v>
+        <v>155.7118084757595</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32250,7 +32250,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P17" t="n">
         <v>629.9949819746414</v>
@@ -32496,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33517,10 +33517,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>562.7107934893645</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>246.9454735174611</v>
+        <v>379.9148430313211</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127274</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>672465.8332524792</v>
+        <v>704435.6777831471</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12426458.88989895</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240763</v>
+        <v>6381813.161497336</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9745045.44712829</v>
+        <v>9419727.559464931</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
-        <v>278.5238702603267</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>107.2977824924682</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>116.3508192993409</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>122.2978533527822</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>242.8268245190025</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>253.6466956865328</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>92.29310900007594</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>156.5831467345239</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>227.0498507676369</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>280.7051465142675</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247055</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>167.2807883299695</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>8.826231050087156</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>1.781160222249673</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>216.1947006939461</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>262.2349296649705</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>70.82764119510665</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>1.487334137518191</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>24.14763241892771</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>133.6650819731286</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1660,22 +1660,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>224.7562560951392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>7.160548332619828</v>
+        <v>78.8774743759903</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>15.11174121957099</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>150.1033339375742</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>178.647843195296</v>
       </c>
       <c r="D20" t="n">
-        <v>205.6099408342595</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>70.8276411951062</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.21818400116982</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>106.111715575619</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>9.152727013335593</v>
       </c>
     </row>
     <row r="24">
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>6.380068175847859</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>114.4746605491558</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2611,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>58.92805047992164</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>137.9038626268947</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2797,13 +2797,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>28.93420885558077</v>
+        <v>22.94224839230093</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>76.73163039244936</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>17.35112070699578</v>
+        <v>3.370627058727678</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146.1579437348916</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>90.41948680756569</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>188.2196394312107</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>127.5532942524969</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>81.72898226868531</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.626889274476</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>323.4624061283623</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>252.1815824390002</v>
       </c>
     </row>
     <row r="39">
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>72.57251122165343</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>150.92433948255</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>65.72456219185446</v>
+        <v>131.0573912450687</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>50.43805308696707</v>
       </c>
       <c r="W43" t="n">
-        <v>201.0854077331753</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>28.9079846578023</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>246.258675210547</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>6.380068175847845</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951288</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1545.062936918765</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="C2" t="n">
-        <v>1545.062936918765</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="D2" t="n">
-        <v>1545.062936918765</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="E2" t="n">
-        <v>1159.27468432052</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="F2" t="n">
-        <v>748.288779530913</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="G2" t="n">
-        <v>332.5840292552018</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918765</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="X2" t="n">
-        <v>1545.062936918765</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="Y2" t="n">
-        <v>1545.062936918765</v>
+        <v>820.2300801016545</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429755</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744472</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>826.7196740428383</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>591.5675658110956</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>337.330209082894</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>129.4787088773612</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.3634259803388</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>808.5369117403634</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>542.1592551731853</v>
       </c>
       <c r="V4" t="n">
-        <v>1121.211190889087</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="W4" t="n">
-        <v>831.794020852126</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="X4" t="n">
-        <v>603.8044699541086</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.0118908105785</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1641.622808667129</v>
+        <v>1484.62828429097</v>
       </c>
       <c r="C5" t="n">
-        <v>1272.660291726717</v>
+        <v>1115.665767350559</v>
       </c>
       <c r="D5" t="n">
-        <v>914.3945931199664</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E5" t="n">
-        <v>528.6063405217222</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F5" t="n">
-        <v>117.6204357321147</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188879</v>
+        <v>1837.396939561084</v>
       </c>
       <c r="W5" t="n">
-        <v>1641.622808667129</v>
+        <v>1484.62828429097</v>
       </c>
       <c r="X5" t="n">
-        <v>1641.622808667129</v>
+        <v>1484.62828429097</v>
       </c>
       <c r="Y5" t="n">
-        <v>1641.622808667129</v>
+        <v>1484.62828429097</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>214.3836900926281</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>633.2955414799098</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>906.4287469816061</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1226.335642450116</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1569.118166444748</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1860.477412699314</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2074.985828260215</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2029.495166406373</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>1936.269803780034</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>1708.168213913298</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1473.016105681555</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1218.778748953354</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1010.927248747821</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>803.166949982867</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.1367340659135</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="C7" t="n">
-        <v>198.1367340659135</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>58.69630920174243</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>213.7203003246707</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>467.6240706728887</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>745.7191196640791</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1262.397853152953</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1444.034594271087</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693648</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693648</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1328.190584012311</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1104.586726704934</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>815.460405678958</v>
       </c>
       <c r="V7" t="n">
-        <v>1117.984498974661</v>
+        <v>560.7759174730711</v>
       </c>
       <c r="W7" t="n">
-        <v>828.5673289377006</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="X7" t="n">
-        <v>600.5777780396833</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="Y7" t="n">
-        <v>379.7851988961531</v>
+        <v>43.3691965380931</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1641.622808667129</v>
+        <v>1054.551232880758</v>
       </c>
       <c r="C8" t="n">
-        <v>1272.660291726717</v>
+        <v>1054.551232880758</v>
       </c>
       <c r="D8" t="n">
-        <v>914.3945931199667</v>
+        <v>1054.551232880758</v>
       </c>
       <c r="E8" t="n">
-        <v>528.6063405217224</v>
+        <v>1054.551232880758</v>
       </c>
       <c r="F8" t="n">
-        <v>117.6204357321147</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2268.669627664029</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2015.088566928209</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2015.088566928209</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>2015.088566928209</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X8" t="n">
-        <v>1641.622808667129</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="Y8" t="n">
-        <v>1641.622808667129</v>
+        <v>1441.151072944879</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380239</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694955</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1922.533821476954</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576348</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.862713590079</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1533.862713590079</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>1244.445543553118</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1127.748203495403</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="C11" t="n">
-        <v>909.3697179459625</v>
+        <v>1813.303537713132</v>
       </c>
       <c r="D11" t="n">
-        <v>909.3697179459625</v>
+        <v>1455.037839106381</v>
       </c>
       <c r="E11" t="n">
-        <v>523.5814653477182</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5068,25 +5068,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410101</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066531</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796416</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535336</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y11" t="n">
-        <v>1514.348043559525</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
@@ -5120,46 +5120,46 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>452.6479724696239</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C13" t="n">
-        <v>452.6479724696239</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="D13" t="n">
-        <v>452.6479724696239</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="E13" t="n">
-        <v>381.1049005553748</v>
+        <v>214.9044216447586</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574644</v>
+        <v>68.01447414684824</v>
       </c>
       <c r="G13" t="n">
         <v>66.5121164321834</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.6479724696239</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2065.110222835253</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.147705894841</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>1337.882007288091</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>952.0937546898465</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>541.107849900239</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2841.849394875187</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y14" t="n">
-        <v>2451.710062899375</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>848.0708164780106</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C16" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1705.527932658019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>1705.527932658019</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>1478.501411349798</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.51186045178</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.71928130825</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1285.591601078695</v>
+        <v>1758.295537883725</v>
       </c>
       <c r="C17" t="n">
-        <v>1278.358723975039</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>3119.628073993394</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V17" t="n">
-        <v>2788.565186649823</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W17" t="n">
-        <v>2435.796531379709</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X17" t="n">
-        <v>2062.330773118629</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="Y17" t="n">
-        <v>1672.191441142817</v>
+        <v>2144.895377947847</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,31 +5612,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
         <v>1109.759191501176</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>249.4793381277382</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C19" t="n">
-        <v>249.4793381277382</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D19" t="n">
-        <v>234.2149530574645</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V19" t="n">
-        <v>1169.327103036486</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W19" t="n">
-        <v>879.9099329995254</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X19" t="n">
-        <v>651.920382101508</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="Y19" t="n">
-        <v>431.1278029579779</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1808.800296392465</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C20" t="n">
-        <v>1439.837779452053</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>1232.150970528558</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923659</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653544</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X20" t="n">
-        <v>1808.800296392465</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y20" t="n">
-        <v>1808.800296392465</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5834,10 +5834,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,7 +5849,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>409.1586012949293</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="C22" t="n">
-        <v>240.2224183670224</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="D22" t="n">
-        <v>240.2224183670224</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="E22" t="n">
-        <v>240.2224183670224</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>240.2224183670224</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
         <v>66.51211643218342</v>
@@ -5910,16 +5910,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W22" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X22" t="n">
-        <v>590.8070661251691</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y22" t="n">
-        <v>590.8070661251691</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1311.909787855437</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C23" t="n">
-        <v>942.9472709150252</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D23" t="n">
-        <v>584.6815723082748</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E23" t="n">
-        <v>584.6815723082748</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F23" t="n">
-        <v>173.6956675186672</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6013,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180638</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="Y23" t="n">
-        <v>1698.509627919559</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.5121164321834</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C25" t="n">
-        <v>66.5121164321834</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="D25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1530.147236421175</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U25" t="n">
-        <v>1241.044369546818</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>986.3598813409312</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W25" t="n">
-        <v>696.9427113039706</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X25" t="n">
-        <v>468.9531604059532</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y25" t="n">
-        <v>248.1605812624231</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="26">
@@ -6217,58 +6217,58 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3215.315153136265</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V26" t="n">
-        <v>2884.252265792694</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W26" t="n">
-        <v>2531.48361052258</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X26" t="n">
-        <v>2392.186779586323</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y26" t="n">
         <v>2392.186779586323</v>
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796256</v>
+        <v>1642.972675199008</v>
       </c>
       <c r="C29" t="n">
-        <v>552.807938939214</v>
+        <v>1274.010158258596</v>
       </c>
       <c r="D29" t="n">
-        <v>552.807938939214</v>
+        <v>915.744459651846</v>
       </c>
       <c r="E29" t="n">
-        <v>523.5814653477182</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6499,16 +6499,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943747</v>
+        <v>2029.57251526313</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
         <v>2407.411984886741</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218342</v>
+        <v>459.8449442241111</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>290.9087612962043</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
         <v>66.51211643218342</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1751.913851851648</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W31" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X31" t="n">
-        <v>468.9531604059532</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y31" t="n">
-        <v>248.1605812624231</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2047.583838282732</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C32" t="n">
-        <v>1678.62132134232</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>3197.788768583745</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X32" t="n">
-        <v>2824.323010322666</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y32" t="n">
-        <v>2434.183678346854</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>530.9956795433841</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C34" t="n">
-        <v>362.0594966154772</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D34" t="n">
-        <v>214.4252100145765</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218343</v>
+        <v>304.7348788872308</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218343</v>
+        <v>157.8449313893205</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1705.527932658019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>1450.843444452132</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>1161.426274415171</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>933.436723517154</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>712.6441443736238</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038042</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097631</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D35" t="n">
-        <v>1095.40402049088</v>
+        <v>581.1420803965862</v>
       </c>
       <c r="E35" t="n">
-        <v>709.6157678926361</v>
+        <v>195.3538277983419</v>
       </c>
       <c r="F35" t="n">
-        <v>298.6298631030285</v>
+        <v>195.3538277983419</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>195.3538277983419</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077976</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102164</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.5121164321834</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C37" t="n">
-        <v>66.5121164321834</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D37" t="n">
-        <v>66.5121164321834</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E37" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1751.913851851648</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1530.147236421175</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>1241.044369546818</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V37" t="n">
-        <v>986.3598813409312</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W37" t="n">
-        <v>696.9427113039706</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X37" t="n">
-        <v>468.9531604059532</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y37" t="n">
-        <v>248.1605812624231</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1959.241091287691</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C38" t="n">
-        <v>1590.278574347279</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>1232.012875740528</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>846.2246231422841</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>435.2387183526766</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
         <v>66.5121164321834</v>
@@ -7177,7 +7177,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7201,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>3072.075344883006</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W38" t="n">
-        <v>2719.306689612892</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X38" t="n">
-        <v>2345.840931351812</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y38" t="n">
-        <v>2345.840931351812</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>380.4321398396066</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C40" t="n">
-        <v>380.4321398396066</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>380.4321398396066</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E40" t="n">
-        <v>380.4321398396066</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
         <v>66.5121164321834</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1853.988981197934</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1662.30309702476</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1440.536481594286</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1151.43361471993</v>
       </c>
       <c r="V40" t="n">
-        <v>1224.739181610489</v>
+        <v>1151.43361471993</v>
       </c>
       <c r="W40" t="n">
-        <v>935.322011573528</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X40" t="n">
-        <v>782.8731838133765</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y40" t="n">
-        <v>562.0806046698464</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X41" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y41" t="n">
-        <v>2005.586939522201</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>794.6070935315613</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>625.6709106036544</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>625.6709106036544</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>477.7578170212613</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1735.608663915319</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1446.505797040963</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1446.505797040963</v>
+        <v>1365.477537412989</v>
       </c>
       <c r="W43" t="n">
-        <v>1243.389223573109</v>
+        <v>1076.060367376028</v>
       </c>
       <c r="X43" t="n">
-        <v>1015.399672675091</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y43" t="n">
-        <v>794.6070935315613</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1320.35562273557</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C44" t="n">
-        <v>1320.35562273557</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2823.329208306698</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2470.560553036583</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X44" t="n">
-        <v>2097.094794775503</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y44" t="n">
-        <v>1706.955462799692</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="45">
@@ -7718,16 +7718,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>241.8928126690276</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C46" t="n">
-        <v>72.95662974112065</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X46" t="n">
-        <v>644.3338566427974</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y46" t="n">
-        <v>423.5412774992673</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>265.0304328515144</v>
+        <v>15.73946458758422</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>31.66886087721423</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878365</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>255.5240487471568</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154995</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>22.49468230207867</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>18.86898237295591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>98.38491328483612</v>
       </c>
     </row>
     <row r="4">
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22755,25 +22755,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>106.863526580225</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
-        <v>129.8397899710458</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22789,22 +22789,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>111.8562171016804</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>95.5942730308802</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22865,7 +22865,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22880,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.17372043046388</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22916,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>100.4701093106878</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22953,16 +22953,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>40.60454402509191</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>25.08779255619112</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>126.1708992274439</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>39.37739665026427</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -23229,25 +23229,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>216.88342433895</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>216.8034931298451</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>149.0781910770615</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>119.6954404072912</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>75.60632145146252</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.53847412151</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>358.5862092445529</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>277.2566436803248</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3.55697697365656</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23703,19 +23703,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>61.76674224145185</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>358.1123434383877</v>
+        <v>286.3954173950173</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>133.5037317986414</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>68.48131941452061</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>186.6250485757116</v>
       </c>
       <c r="D20" t="n">
-        <v>149.0731007864234</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>75.60632145146297</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.8076242578584</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>304.8100100778345</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>377.085211642718</v>
       </c>
     </row>
     <row r="24">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>192.0671214789803</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>231.8272380515743</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>352.996161216681</v>
+        <v>358.9881216799608</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>71.88384262576299</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>331.8898480104172</v>
+        <v>345.8703416586853</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>2.457529283320724</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>75.60632145146253</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,13 +25125,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>222.7020862222428</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>167.0544701348236</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>64.70498037788386</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696594</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>87.45931952509119</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>134.0563562170534</v>
       </c>
     </row>
     <row r="39">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>16.3596414483939</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>74.78531590648717</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>320.5133764641992</v>
+        <v>255.1805474109849</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>201.6995902368609</v>
       </c>
       <c r="W43" t="n">
-        <v>85.43759060341569</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>353.0223854144595</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>81.49358325958787</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>142.2354048423645</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>16.142136056966</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>784195.2636776819</v>
+        <v>524231.6472993041</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>784195.263677682</v>
+        <v>716226.8215413009</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>784195.2636776818</v>
+        <v>784195.263677682</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862251.8508674989</v>
+        <v>862251.850867499</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862251.8508674991</v>
+        <v>862251.850867499</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862251.8508674991</v>
+        <v>862251.8508674989</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862251.850867499</v>
+        <v>862251.8508674989</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862251.8508674989</v>
+        <v>862251.850867499</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862251.8508674991</v>
+        <v>862251.8508674989</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862251.8508674989</v>
+        <v>862251.850867499</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862251.850867499</v>
+        <v>862251.8508674988</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862251.8508674991</v>
+        <v>862251.8508674989</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862251.850867499</v>
+        <v>862251.8508674989</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305971.6304943085</v>
+        <v>203966.5811971125</v>
       </c>
       <c r="C2" t="n">
+        <v>279547.2423401896</v>
+      </c>
+      <c r="D2" t="n">
         <v>305971.6304943087</v>
       </c>
-      <c r="D2" t="n">
-        <v>305971.6304943085</v>
-      </c>
       <c r="E2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="F2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="G2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="F2" t="n">
-        <v>340997.0989709205</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="H2" t="n">
-        <v>340997.0989709205</v>
-      </c>
       <c r="I2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="J2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="K2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="L2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709206</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>308174.1417414041</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>99404.18284596031</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171911</v>
+        <v>182072.9798171905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>71651.52831447161</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>24921.83922824936</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341482</v>
+        <v>47552.26579341494</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19788.00270570974</v>
+        <v>14543.87419713278</v>
       </c>
       <c r="C4" t="n">
-        <v>19788.00270570974</v>
+        <v>17804.0076988212</v>
       </c>
       <c r="D4" t="n">
-        <v>19788.00270570976</v>
+        <v>19788.00270570973</v>
       </c>
       <c r="E4" t="n">
         <v>10380.34706710378</v>
@@ -26432,7 +26432,7 @@
         <v>10380.34706710378</v>
       </c>
       <c r="G4" t="n">
-        <v>10380.34706710378</v>
+        <v>10380.3470671038</v>
       </c>
       <c r="H4" t="n">
         <v>10380.34706710378</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>63047.8032042662</v>
+      </c>
+      <c r="C5" t="n">
+        <v>85199.0818558723</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.7724398447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>74306.34056139328</v>
@@ -26490,28 +26490,28 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-926733.3909490571</v>
+        <v>-554745.8483141548</v>
       </c>
       <c r="C6" t="n">
-        <v>188018.3926268626</v>
+        <v>-132284.8571688677</v>
       </c>
       <c r="D6" t="n">
-        <v>188018.3926268627</v>
+        <v>93318.92623060482</v>
       </c>
       <c r="E6" t="n">
-        <v>70761.24222717137</v>
+        <v>73889.81259542691</v>
       </c>
       <c r="F6" t="n">
-        <v>252834.2220443624</v>
+        <v>255962.7924126174</v>
       </c>
       <c r="G6" t="n">
-        <v>252834.2220443626</v>
+        <v>255962.7924126175</v>
       </c>
       <c r="H6" t="n">
-        <v>252834.2220443624</v>
+        <v>255962.7924126175</v>
       </c>
       <c r="I6" t="n">
-        <v>252834.2220443624</v>
+        <v>255962.7924126172</v>
       </c>
       <c r="J6" t="n">
-        <v>85229.04423437989</v>
+        <v>186963.6379935032</v>
       </c>
       <c r="K6" t="n">
-        <v>252834.2220443625</v>
+        <v>184311.2640981457</v>
       </c>
       <c r="L6" t="n">
-        <v>252834.2220443624</v>
+        <v>231040.9531843679</v>
       </c>
       <c r="M6" t="n">
-        <v>205281.9562509474</v>
+        <v>208410.5266192024</v>
       </c>
       <c r="N6" t="n">
-        <v>252834.2220443624</v>
+        <v>255962.7924126174</v>
       </c>
       <c r="O6" t="n">
-        <v>252834.2220443625</v>
+        <v>255962.7924126173</v>
       </c>
       <c r="P6" t="n">
-        <v>252834.2220443625</v>
+        <v>255962.7924126174</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>853.7106645376848</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>263.7138800015062</v>
+      </c>
+      <c r="C4" t="n">
+        <v>542.1149567261638</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>239.6556507682064</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>80.35422757985452</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757595</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>278.4010767246576</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>98.46987537387497</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246573</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>98.46987537387486</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246576</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>98.46987537387497</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491898</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335768</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31998,7 +31998,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953983</v>
       </c>
       <c r="K14" t="n">
         <v>557.281137600381</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
         <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676407</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>245.5483596572287</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>172.7419126813485</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>423.1432842295775</v>
       </c>
       <c r="L6" t="n">
-        <v>562.7107934893645</v>
+        <v>275.8921267693901</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>346.2449737319514</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>94.41818044892926</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>15.48193198348417</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>156.5898900231599</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>256.4684548971899</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>280.9040898900913</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>279.7143300212426</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>242.1833805735795</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>183.4714556748829</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>42.74826709349601</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637946</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313211</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928737</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961228</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235321</v>
+        <v>505.2035778706892</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
